--- a/z.ERP/trunk/z.ERP.Web/File/Template/商品销售明细导出.xlsx
+++ b/z.ERP/trunk/z.ERP.Web/File/Template/商品销售明细导出.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28EFBE0E-313A-41C2-B4D7-1308757AD21F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1EBAE1D-FD85-4C2A-93F4-48F0C55CF67A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,14 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>交易日期</t>
   </si>
   <si>
-    <t>收款机号</t>
-  </si>
-  <si>
     <t>交易号</t>
   </si>
   <si>
@@ -40,9 +37,6 @@
     <t>销售金额</t>
   </si>
   <si>
-    <t>原收款机号</t>
-  </si>
-  <si>
     <t>原交易号</t>
   </si>
   <si>
@@ -54,26 +48,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>&amp;=GoodsSaleDetail.GOODSNAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=GoodsSaleDetail.NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=GoodsSaleDetail.AMOUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=GoodsSaleDetail.POSNO_OLD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=GoodsSaleDetail.DEALID_OLD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>&amp;=GoodsSaleDetail.DEALID</t>
-  </si>
-  <si>
-    <t>&amp;=GoodsSaleDetail.GOODSNAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=GoodsSaleDetail.NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=GoodsSaleDetail.AMOUNT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=GoodsSaleDetail.POSNO_OLD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=GoodsSaleDetail.DEALID_OLD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=GoodsSaleDetail.BRANDNAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终端号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -399,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -411,61 +418,68 @@
     <col min="2" max="2" width="10.375" customWidth="1"/>
     <col min="3" max="3" width="18.5" customWidth="1"/>
     <col min="4" max="4" width="11.375" customWidth="1"/>
-    <col min="5" max="5" width="11.25" customWidth="1"/>
-    <col min="6" max="6" width="10.875" customWidth="1"/>
-    <col min="7" max="7" width="16.625" customWidth="1"/>
+    <col min="5" max="5" width="10.375" customWidth="1"/>
+    <col min="6" max="6" width="11.25" customWidth="1"/>
+    <col min="7" max="7" width="10.875" customWidth="1"/>
+    <col min="8" max="8" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="G2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="H2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="I2" t="s">
         <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
